--- a/results/DT.xlsx
+++ b/results/DT.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1605"/>
+  <dimension ref="A1:N1605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,6 +423,11 @@
           <t>SCA2_CODE</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CD_BINARY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -27184,11 +27189,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C562">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E562">
         <v>17</v>
@@ -49443,6 +49448,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1043" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" t="inlineStr">
@@ -49496,6 +49506,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1044" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" t="inlineStr">
@@ -49549,6 +49564,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1045" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
@@ -49602,6 +49622,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1046" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" t="inlineStr">
@@ -49655,6 +49680,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1047" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" t="inlineStr">
@@ -49708,6 +49738,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1048" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" t="inlineStr">
@@ -49761,6 +49796,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1049" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" t="inlineStr">
@@ -49814,6 +49854,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1050" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" t="inlineStr">
@@ -49920,6 +49965,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1052" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
@@ -49973,6 +50023,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1053" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" t="inlineStr">
@@ -50026,6 +50081,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1054" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
@@ -50079,6 +50139,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1055" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
@@ -50132,6 +50197,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1056" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
@@ -50238,6 +50308,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1058" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
@@ -50344,6 +50419,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1060" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
@@ -50437,6 +50517,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1062" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
@@ -50490,6 +50575,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1063" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
@@ -50538,6 +50628,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1064" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
@@ -50591,6 +50686,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1065" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
@@ -50644,6 +50744,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1066" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
@@ -50697,6 +50802,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1067" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" t="inlineStr">
@@ -50750,6 +50860,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1068" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
@@ -50798,6 +50913,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1069" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
@@ -50904,6 +51024,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1071" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
@@ -50957,6 +51082,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1072" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" t="inlineStr">
@@ -51010,6 +51140,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1073" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
@@ -51063,6 +51198,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1074" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
@@ -51275,6 +51415,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1078" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
@@ -51328,6 +51473,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1079" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
@@ -51487,6 +51637,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1082" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
@@ -51540,6 +51695,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1083" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
@@ -51593,6 +51753,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1084" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
@@ -51726,6 +51891,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1087" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" t="inlineStr">
@@ -51779,6 +51949,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1088" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
@@ -51832,6 +52007,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1089" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
@@ -51885,6 +52065,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1090" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" t="inlineStr">
@@ -51938,6 +52123,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1091" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" t="inlineStr">
@@ -51991,6 +52181,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1092" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
@@ -52044,6 +52239,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1093" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" t="inlineStr">
@@ -52097,6 +52297,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1094" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" t="inlineStr">
@@ -52150,6 +52355,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1095" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
@@ -52203,6 +52413,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1096" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
@@ -52296,6 +52511,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1098" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
@@ -52349,6 +52569,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1099" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" t="inlineStr">
@@ -52402,6 +52627,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1100" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" t="inlineStr">
@@ -52455,6 +52685,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1101" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
@@ -52508,6 +52743,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1102" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" t="inlineStr">
@@ -52561,6 +52801,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1103" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" t="inlineStr">
@@ -52614,6 +52859,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1104" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" t="inlineStr">
@@ -52720,6 +52970,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1106" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
@@ -52773,6 +53028,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1107" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
@@ -52826,6 +53086,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1108" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
@@ -52922,6 +53187,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1110" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
@@ -52975,6 +53245,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1111" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
@@ -53293,6 +53568,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1117" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
@@ -53346,6 +53626,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1118" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
@@ -53399,6 +53684,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1119" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
@@ -53452,6 +53742,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1120" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
@@ -53505,6 +53800,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1121" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
@@ -53558,6 +53858,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1122" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" t="inlineStr">
@@ -53611,6 +53916,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1123" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" t="inlineStr">
@@ -53717,6 +54027,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1125" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
@@ -53770,6 +54085,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1126" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
@@ -53823,6 +54143,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1127" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
@@ -53876,6 +54201,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1128" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
@@ -53929,6 +54259,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1129" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
@@ -53982,6 +54317,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1130" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
@@ -54247,6 +54587,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1135" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
@@ -54353,6 +54698,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1137" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
@@ -54459,6 +54809,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1139" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
@@ -54512,6 +54867,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1140" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
@@ -54565,6 +54925,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1141" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
@@ -54618,6 +54983,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1142" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
@@ -54671,6 +55041,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1143" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
@@ -54724,6 +55099,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1144" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
@@ -54777,6 +55157,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1145" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
@@ -54830,6 +55215,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1146" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
@@ -54883,6 +55273,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1147" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
@@ -54936,6 +55331,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1148" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
@@ -54989,6 +55389,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1149" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
@@ -55042,6 +55447,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1150" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
@@ -55095,6 +55505,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1151" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" t="inlineStr">
@@ -55148,6 +55563,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1152" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
@@ -55201,6 +55621,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1153" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
@@ -55254,6 +55679,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1154" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" t="inlineStr">
@@ -55307,6 +55737,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1155" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" t="inlineStr">
@@ -55360,6 +55795,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1156" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
@@ -55413,6 +55853,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1157" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
@@ -55461,6 +55906,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1158" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
@@ -55514,6 +55964,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1159" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
@@ -55567,6 +56022,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1160" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
@@ -55620,6 +56080,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1161" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
@@ -55673,6 +56138,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1162" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
@@ -55726,6 +56196,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1163" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
@@ -55832,6 +56307,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1165" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
@@ -55885,6 +56365,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1166" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
@@ -55938,6 +56423,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1167" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
@@ -55991,6 +56481,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1168" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
@@ -56044,6 +56539,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1169" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
@@ -56097,6 +56597,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1170" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
@@ -56150,6 +56655,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1171" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" t="inlineStr">
@@ -56203,6 +56713,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1172" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" t="inlineStr">
@@ -56256,6 +56771,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1173" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" t="inlineStr">
@@ -56309,6 +56829,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1174" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
@@ -56362,6 +56887,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1175" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
@@ -56415,6 +56945,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1176" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" t="inlineStr">
@@ -56468,6 +57003,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1177" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
@@ -56521,6 +57061,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1178" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
@@ -56574,6 +57119,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1179" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
@@ -56627,6 +57177,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1180" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
@@ -56680,6 +57235,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1181" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
@@ -56733,6 +57293,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1182" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
@@ -56786,6 +57351,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1183" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
@@ -56839,6 +57409,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1184" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
@@ -56892,6 +57467,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1185" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
@@ -56945,6 +57525,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1186" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
@@ -56998,6 +57583,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1187" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
@@ -57051,6 +57641,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1188" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
@@ -57104,6 +57699,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1189" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
@@ -57157,6 +57757,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1190" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
@@ -57210,6 +57815,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1191" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
@@ -57258,6 +57868,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1192" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
@@ -57311,6 +57926,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1193" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
@@ -57364,6 +57984,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1194" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
@@ -57417,6 +58042,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1195" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
@@ -57470,6 +58100,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1196" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
@@ -57523,6 +58158,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1197" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
@@ -57616,6 +58256,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1199" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
@@ -57669,6 +58314,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1200" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
@@ -57722,6 +58372,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1201" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
@@ -57775,6 +58430,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1202" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
@@ -57828,6 +58488,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1203" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
@@ -57881,6 +58546,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1204" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -57934,6 +58604,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1205" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
@@ -57987,6 +58662,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1206" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
@@ -58080,6 +58760,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1208" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
@@ -58133,6 +58818,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1209" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
@@ -58186,6 +58876,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1210" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
@@ -58239,6 +58934,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1211" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
@@ -58292,6 +58992,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1212" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
@@ -58345,6 +59050,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1213" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
@@ -58398,6 +59108,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1214" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
@@ -58451,6 +59166,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1215" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
@@ -58504,6 +59224,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1216" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
@@ -58557,6 +59282,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1217" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
@@ -58610,6 +59340,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1218" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
@@ -58663,6 +59398,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1219" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
@@ -58716,6 +59456,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1220" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
@@ -58769,6 +59514,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1221" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
@@ -58822,6 +59572,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1222" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
@@ -58875,6 +59630,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1223" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
@@ -58928,6 +59688,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1224" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
@@ -58981,6 +59746,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1225" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
@@ -59034,6 +59804,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1226" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
@@ -59087,6 +59862,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1227" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
@@ -59140,6 +59920,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1228" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
@@ -59193,6 +59978,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1229" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
@@ -59246,6 +60036,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1230" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
@@ -59299,6 +60094,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1231" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
@@ -59352,6 +60152,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1232" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
@@ -59405,6 +60210,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1233" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
@@ -59458,6 +60268,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1234" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
@@ -59511,6 +60326,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1235" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
@@ -59564,6 +60384,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1236" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
@@ -59617,6 +60442,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1237" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
@@ -59670,6 +60500,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1238" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
@@ -59816,6 +60651,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1241" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
@@ -59869,6 +60709,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1242" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
@@ -59922,6 +60767,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1243" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
@@ -59975,6 +60825,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1244" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" t="inlineStr">
@@ -60028,6 +60883,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1245" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
@@ -60081,6 +60941,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1246" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
@@ -60187,6 +61052,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1248" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
@@ -60240,6 +61110,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1249" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
@@ -60293,6 +61168,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1250" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
@@ -60386,6 +61266,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1252" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
@@ -60439,6 +61324,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1253" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
@@ -60492,6 +61382,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1254" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
@@ -60545,6 +61440,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1255" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
@@ -60598,6 +61498,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1256" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
@@ -60651,6 +61556,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1257" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
@@ -60704,6 +61614,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1258" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
@@ -60757,6 +61672,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1259" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
@@ -60810,6 +61730,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1260" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
@@ -60863,6 +61788,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1261" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
@@ -60916,6 +61846,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1262" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
@@ -60969,6 +61904,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1263" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
@@ -61022,6 +61962,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1264" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
@@ -61075,6 +62020,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1265" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" t="inlineStr">
@@ -61128,6 +62078,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1266" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
@@ -61181,6 +62136,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1267" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
@@ -61234,6 +62194,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1268" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
@@ -61287,6 +62252,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1269" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
@@ -61340,6 +62310,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1270" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
@@ -61393,6 +62368,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1271" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
@@ -61446,6 +62426,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1272" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
@@ -61499,6 +62484,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1273" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
@@ -61552,6 +62542,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1274" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
@@ -61605,6 +62600,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1275" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
@@ -61658,6 +62658,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1276" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
@@ -61711,6 +62716,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1277" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
@@ -61764,6 +62774,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1278" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
@@ -61817,6 +62832,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1279" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
@@ -61870,6 +62890,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1280" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
@@ -61923,6 +62948,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1281" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
@@ -61976,6 +63006,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1282" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" t="inlineStr">
@@ -62029,6 +63064,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1283" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" t="inlineStr">
@@ -62082,6 +63122,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1284" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
@@ -62135,6 +63180,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1285" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
@@ -62188,6 +63238,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1286" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
@@ -62241,6 +63296,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1287" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
@@ -62294,6 +63354,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1288" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
@@ -62347,6 +63412,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1289" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
@@ -62400,6 +63470,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1290" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
@@ -62453,6 +63528,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1291" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
@@ -62506,6 +63586,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1292" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
@@ -62559,6 +63644,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1293" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
@@ -62612,6 +63702,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1294" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
@@ -62665,6 +63760,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1295" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
@@ -62718,6 +63818,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1296" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
@@ -62771,6 +63876,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1297" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
@@ -62824,6 +63934,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1298" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
@@ -62877,6 +63992,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1299" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
@@ -62930,6 +64050,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1300" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
@@ -62983,6 +64108,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1301" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
@@ -63089,6 +64219,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1303" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
@@ -63142,6 +64277,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1304" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
@@ -63195,6 +64335,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1305" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
@@ -63248,6 +64393,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1306" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
@@ -63301,6 +64451,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1307" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
@@ -63354,6 +64509,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1308" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
@@ -63407,6 +64567,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1309" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
@@ -63460,6 +64625,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1310" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" t="inlineStr">
@@ -63513,6 +64683,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1311" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" t="inlineStr">
@@ -63566,6 +64741,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1312" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" t="inlineStr">
@@ -63619,6 +64799,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1313" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" t="inlineStr">
@@ -63672,6 +64857,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1314" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
@@ -63725,6 +64915,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1315" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
@@ -63778,6 +64973,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1316" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
@@ -63831,6 +65031,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1317" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
@@ -63884,6 +65089,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1318" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
@@ -63937,6 +65147,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1319" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
@@ -63990,6 +65205,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1320" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" t="inlineStr">
@@ -64043,6 +65263,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1321" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
@@ -64096,6 +65321,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1322" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
@@ -64149,6 +65379,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1323" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" t="inlineStr">
@@ -64202,6 +65437,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1324" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
@@ -64295,6 +65535,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1326" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" t="inlineStr">
@@ -64348,6 +65593,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1327" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" t="inlineStr">
@@ -64521,6 +65771,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1331" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
@@ -64574,6 +65829,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1332" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
@@ -64627,6 +65887,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1333" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
@@ -64680,6 +65945,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1334" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
@@ -64733,6 +66003,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1335" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
@@ -64786,6 +66061,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1336" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
@@ -64839,6 +66119,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1337" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
@@ -64892,6 +66177,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1338" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
@@ -64945,6 +66235,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1339" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
@@ -64998,6 +66293,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1340" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
@@ -65051,6 +66351,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1341" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
@@ -65104,6 +66409,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1342" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
@@ -65157,6 +66467,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1343" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
@@ -65210,6 +66525,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1344" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
@@ -65263,6 +66583,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1345" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
@@ -65316,6 +66641,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1346" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
@@ -65369,6 +66699,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1347" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
@@ -65422,6 +66757,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1348" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
@@ -65475,6 +66815,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1349" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
@@ -65517,6 +66862,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1350" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
@@ -65570,6 +66920,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1351" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
@@ -65623,6 +66978,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1352" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
@@ -65676,6 +67036,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1353" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
@@ -65729,6 +67094,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1354" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
@@ -65835,6 +67205,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1356" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
@@ -65888,6 +67263,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1357" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
@@ -65941,6 +67321,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1358" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
@@ -65994,6 +67379,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1359" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
@@ -66047,6 +67437,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1360" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
@@ -66100,6 +67495,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1361" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
@@ -66153,6 +67553,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1362" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
@@ -66206,6 +67611,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1363" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
@@ -66259,6 +67669,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1364" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
@@ -66312,6 +67727,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1365" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
@@ -66365,6 +67785,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1366" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
@@ -66418,6 +67843,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1367" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
@@ -66471,6 +67901,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1368" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
@@ -66524,6 +67959,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1369" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
@@ -66577,6 +68017,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1370" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
@@ -66630,6 +68075,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1371" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" t="inlineStr">
@@ -66683,6 +68133,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1372" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
@@ -66736,6 +68191,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1373" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" t="inlineStr">
@@ -66789,6 +68249,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1374" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
@@ -66842,6 +68307,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1375" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
@@ -66895,6 +68365,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1376" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" t="inlineStr">
@@ -66948,6 +68423,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1377" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
@@ -67001,6 +68481,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1378" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
@@ -67054,6 +68539,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1379" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
@@ -67107,6 +68597,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1380" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" t="inlineStr">
@@ -67160,6 +68655,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1381" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
@@ -67213,6 +68713,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1382" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
@@ -67266,6 +68771,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1383" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
@@ -67319,6 +68829,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1384" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
@@ -67372,6 +68887,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1385" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
@@ -67425,6 +68945,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1386" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
@@ -67478,6 +69003,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1387" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
@@ -67531,6 +69061,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1388" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
@@ -67584,6 +69119,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1389" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
@@ -67637,6 +69177,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1390" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
@@ -67690,6 +69235,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1391" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
@@ -67743,6 +69293,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1392" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" t="inlineStr">
@@ -67836,6 +69391,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1394" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" t="inlineStr">
@@ -67889,6 +69449,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1395" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
@@ -67942,6 +69507,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1396" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
@@ -67995,6 +69565,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1397" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
@@ -68048,6 +69623,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1398" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" t="inlineStr">
@@ -68101,6 +69681,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1399" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
@@ -68154,6 +69739,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1400" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
@@ -68207,6 +69797,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1401" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
@@ -68260,6 +69855,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1402" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" t="inlineStr">
@@ -68313,6 +69913,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1403" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
@@ -68366,6 +69971,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1404" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
@@ -68419,6 +70029,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1405" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
@@ -68472,6 +70087,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1406" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
@@ -68525,6 +70145,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1407" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
@@ -68578,6 +70203,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1408" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
@@ -68631,6 +70261,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1409" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
@@ -68684,6 +70319,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1410" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
@@ -68737,6 +70377,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1411" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" t="inlineStr">
@@ -68790,6 +70435,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1412" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
@@ -68843,6 +70493,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1413" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
@@ -68896,6 +70551,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1414" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
@@ -68949,6 +70609,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1415" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
@@ -69002,6 +70667,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1416" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
@@ -69055,6 +70725,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1417" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" t="inlineStr">
@@ -69108,6 +70783,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1418" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" t="inlineStr">
@@ -69161,6 +70841,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1419" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" t="inlineStr">
@@ -69214,6 +70899,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1420" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" t="inlineStr">
@@ -69267,6 +70957,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1421" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
@@ -69320,6 +71015,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1422" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
@@ -69373,6 +71073,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1423" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
@@ -69426,6 +71131,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1424" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" t="inlineStr">
@@ -69479,6 +71189,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1425" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" t="inlineStr">
@@ -69532,6 +71247,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1426" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" t="inlineStr">
@@ -69585,6 +71305,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1427" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
@@ -69638,6 +71363,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1428" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
@@ -69691,6 +71421,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1429" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
@@ -69744,6 +71479,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1430" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
@@ -69797,6 +71537,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1431" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
@@ -69850,6 +71595,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1432" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
@@ -69903,6 +71653,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1433" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
@@ -70009,6 +71764,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1435" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
@@ -70062,6 +71822,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1436" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
@@ -70115,6 +71880,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1437" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
@@ -70168,6 +71938,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1438" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
@@ -70221,6 +71996,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1439" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
@@ -70274,6 +72054,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1440" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
@@ -70327,6 +72112,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1441" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" t="inlineStr">
@@ -70380,6 +72170,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1442" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
@@ -70433,6 +72228,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1443" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
@@ -70486,6 +72286,11 @@
           <t>EXPANDED</t>
         </is>
       </c>
+      <c r="N1444" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
@@ -70539,6 +72344,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1445" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
@@ -70592,6 +72402,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1446" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
@@ -70645,6 +72460,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1447" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
@@ -70698,6 +72518,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1448" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
@@ -70751,6 +72576,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1449" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
@@ -70804,6 +72634,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1450" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
@@ -70857,6 +72692,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1451" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
@@ -70910,6 +72750,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1452" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
@@ -70963,6 +72808,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1453" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
@@ -71016,6 +72866,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1454" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
@@ -71069,6 +72924,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1455" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
@@ -71122,6 +72982,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1456" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
@@ -71175,6 +73040,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1457" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
@@ -71228,6 +73098,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1458" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
@@ -71281,6 +73156,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1459" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
@@ -71334,6 +73214,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1460" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
@@ -71387,6 +73272,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1461" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
@@ -71440,6 +73330,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1462" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
@@ -71493,6 +73388,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1463" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
@@ -71546,6 +73446,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1464" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
@@ -71599,6 +73504,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1465" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
@@ -71652,6 +73562,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1466" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
@@ -71758,6 +73673,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1468" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
@@ -71811,6 +73731,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1469" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
@@ -71917,6 +73842,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1471" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
@@ -71970,6 +73900,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1472" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
@@ -72023,6 +73958,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1473" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
@@ -72076,6 +74016,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1474" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
@@ -72182,6 +74127,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1476" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
@@ -72235,6 +74185,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1477" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
@@ -72288,6 +74243,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1478" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
@@ -72341,6 +74301,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1479" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
@@ -72394,6 +74359,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1480" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
@@ -72447,6 +74417,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1481" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
@@ -72500,6 +74475,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1482" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
@@ -72553,6 +74533,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1483" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
@@ -72606,6 +74591,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1484" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
@@ -72659,6 +74649,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1485" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
@@ -72712,6 +74707,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1486" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
@@ -72765,6 +74765,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1487" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
@@ -72818,6 +74823,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1488" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
@@ -72871,6 +74881,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1489" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
@@ -72924,6 +74939,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1490" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
@@ -72977,6 +74997,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1491" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
@@ -73030,6 +75055,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1492" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
@@ -73083,6 +75113,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1493" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
@@ -73136,6 +75171,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1494" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
@@ -73189,6 +75229,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1495" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
@@ -73242,6 +75287,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1496" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
@@ -73295,6 +75345,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1497" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
@@ -73348,6 +75403,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1498" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
@@ -73401,6 +75461,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1499" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
@@ -73454,6 +75519,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1500" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
@@ -73507,6 +75577,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1501" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
@@ -73560,6 +75635,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1502" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
@@ -73613,6 +75693,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1503" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
@@ -73666,6 +75751,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1504" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
@@ -73719,6 +75809,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1505" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
@@ -73772,6 +75867,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1506" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
@@ -73825,6 +75925,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1507" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
@@ -73878,6 +75983,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1508" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
@@ -73931,6 +76041,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1509" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
@@ -73984,6 +76099,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1510" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
@@ -74037,6 +76157,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1511" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
@@ -74090,6 +76215,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1512" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
@@ -74143,6 +76273,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1513" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
@@ -74196,6 +76331,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1514" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
@@ -74302,6 +76442,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1516" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
@@ -74355,6 +76500,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1517" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
@@ -74408,6 +76558,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1518" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
@@ -74461,6 +76616,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1519" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
@@ -74514,6 +76674,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1520" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
@@ -74620,6 +76785,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1522" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
@@ -74673,6 +76843,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1523" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
@@ -74726,6 +76901,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1524" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
@@ -74779,6 +76959,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1525" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
@@ -74832,6 +77017,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1526" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
@@ -74885,6 +77075,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1527" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
@@ -75031,6 +77226,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1530" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
@@ -75084,6 +77284,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1531" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
@@ -75137,6 +77342,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1532" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
@@ -75243,6 +77453,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1534" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
@@ -75296,6 +77511,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1535" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
@@ -75349,6 +77569,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1536" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
@@ -75402,6 +77627,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1537" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
@@ -75455,6 +77685,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1538" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
@@ -75508,6 +77743,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1539" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
@@ -75561,6 +77801,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1540" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
@@ -75614,6 +77859,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1541" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
@@ -75667,6 +77917,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1542" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
@@ -75720,6 +77975,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1543" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
@@ -75773,6 +78033,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1544" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
@@ -75826,6 +78091,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1545" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
@@ -75879,6 +78149,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1546" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
@@ -75932,6 +78207,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1547" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
@@ -75985,6 +78265,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="N1548" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
@@ -76038,6 +78323,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1549" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
@@ -76091,6 +78381,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1550" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
@@ -76144,6 +78439,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1551" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
@@ -76197,6 +78497,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1552" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
@@ -76250,6 +78555,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1553" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
@@ -76303,6 +78613,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1554" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
@@ -76449,6 +78764,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1557" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
@@ -76502,6 +78822,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1558" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
@@ -76555,6 +78880,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1559" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
@@ -76608,6 +78938,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1560" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
@@ -76661,6 +78996,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1561" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
@@ -76714,6 +79054,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1562" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
@@ -76767,6 +79112,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1563" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
@@ -76820,6 +79170,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1564" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
@@ -76873,6 +79228,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1565" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
@@ -76926,6 +79286,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1566" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
@@ -77032,6 +79397,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1568" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
@@ -77085,6 +79455,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1569" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
@@ -77138,6 +79513,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1570" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
@@ -77191,6 +79571,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1571" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
@@ -77244,6 +79629,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1572" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
@@ -77297,6 +79687,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1573" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
@@ -77350,6 +79745,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1574" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
@@ -77403,6 +79803,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1575" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
@@ -77456,6 +79861,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1576" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
@@ -77562,6 +79972,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1578" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
@@ -77615,6 +80030,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1579" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
@@ -77668,6 +80088,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1580" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
@@ -77721,6 +80146,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1581" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
@@ -77774,6 +80204,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1582" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
@@ -77827,6 +80262,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1583" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
@@ -77880,6 +80320,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1584" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
@@ -77933,6 +80378,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1585" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
@@ -78039,6 +80489,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1587" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
@@ -78092,6 +80547,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1588" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
@@ -78193,6 +80653,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1590" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
@@ -78246,6 +80711,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1591" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
@@ -78299,6 +80769,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1592" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
@@ -78352,6 +80827,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1593" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
@@ -78405,6 +80885,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1594" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
@@ -78458,6 +80943,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1595" t="inlineStr">
+        <is>
+          <t>No-CD</t>
+        </is>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
@@ -78511,6 +81001,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1596" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
@@ -78564,6 +81059,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1597" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
@@ -78617,6 +81117,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1598" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
@@ -78670,6 +81175,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1599" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
@@ -78723,6 +81233,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1600" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
@@ -78829,6 +81344,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1602" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
@@ -78935,6 +81455,11 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="N1604" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
@@ -78986,6 +81511,11 @@
       <c r="M1605" t="inlineStr">
         <is>
           <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="N1605" t="inlineStr">
+        <is>
+          <t>No-CD</t>
         </is>
       </c>
     </row>
